--- a/data/strategies/长江场外策略结果.xlsx
+++ b/data/strategies/长江场外策略结果.xlsx
@@ -18,7 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="184">
+  <si>
+    <t>富国中证消费50ETF联接A</t>
+  </si>
+  <si>
+    <t>富国中证军工指数</t>
+  </si>
   <si>
     <t>富国中证新能源汽车</t>
   </si>
@@ -26,12 +32,6 @@
     <t>招商中证白酒A</t>
   </si>
   <si>
-    <t>富国中证消费50ETF联接A</t>
-  </si>
-  <si>
-    <t>富国中证军工指数</t>
-  </si>
-  <si>
     <t>围绕供需的四条配置主线</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>1.77%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>19.13%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>2.85%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>18.68%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>20.96%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>29.14%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>1.70%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>14.91%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>3.97%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>20.93%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>20.40%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>28.80%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -137,88 +134,88 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>008975.OF</t>
+  </si>
+  <si>
+    <t>161024.OF</t>
+  </si>
+  <si>
     <t>161028.OF</t>
   </si>
   <si>
     <t>161725.OF</t>
   </si>
   <si>
-    <t>008975.OF</t>
-  </si>
-  <si>
-    <t>161024.OF</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>-4.41%</t>
-  </si>
-  <si>
-    <t>-7.43%</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>21.82%</t>
-  </si>
-  <si>
-    <t>2.79%</t>
-  </si>
-  <si>
-    <t>12.01%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>4.48%</t>
-  </si>
-  <si>
-    <t>-3.38%</t>
-  </si>
-  <si>
-    <t>-9.03%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>33.34%</t>
-  </si>
-  <si>
-    <t>12.36%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>32.40%</t>
-  </si>
-  <si>
-    <t>22.07%</t>
-  </si>
-  <si>
-    <t>24.35%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>41.12%</t>
-  </si>
-  <si>
-    <t>29.95%</t>
-  </si>
-  <si>
-    <t>32.25%</t>
+    <t>-10.05%</t>
+  </si>
+  <si>
+    <t>-0.00%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-9.08%</t>
+  </si>
+  <si>
+    <t>-7.52%</t>
+  </si>
+  <si>
+    <t>7.53%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>9.63%</t>
+  </si>
+  <si>
+    <t>-9.65%</t>
+  </si>
+  <si>
+    <t>-9.91%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>-1.77%</t>
+  </si>
+  <si>
+    <t>17.40%</t>
+  </si>
+  <si>
+    <t>32.58%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>29.77%</t>
+  </si>
+  <si>
+    <t>21.03%</t>
+  </si>
+  <si>
+    <t>26.82%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>30.75%</t>
+  </si>
+  <si>
+    <t>29.57%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
+  </si>
+  <si>
+    <t>40.62%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,21 +230,21 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
   </si>
   <si>
     <t>600519.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
+    <t>600809.SH</t>
   </si>
   <si>
     <t>000568.SZ</t>
   </si>
   <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
     <t>002304.SZ</t>
   </si>
   <si>
@@ -260,111 +257,114 @@
     <t>600893.SH</t>
   </si>
   <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
     <t>600887.SH</t>
   </si>
   <si>
+    <t>000799.SZ</t>
+  </si>
+  <si>
     <t>002179.SZ</t>
   </si>
   <si>
-    <t>000799.SZ</t>
-  </si>
-  <si>
-    <t>000768.SZ</t>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>002050.SZ</t>
+  </si>
+  <si>
+    <t>002340.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
   </si>
   <si>
     <t>601989.SH</t>
   </si>
   <si>
-    <t>603288.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>002714.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
-  </si>
-  <si>
-    <t>002050.SZ</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>7.52%</t>
-  </si>
-  <si>
-    <t>7.17%</t>
-  </si>
-  <si>
-    <t>5.66%</t>
-  </si>
-  <si>
-    <t>5.58%</t>
-  </si>
-  <si>
-    <t>3.16%</t>
-  </si>
-  <si>
-    <t>3.04%</t>
-  </si>
-  <si>
-    <t>2.55%</t>
-  </si>
-  <si>
-    <t>2.10%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.38%</t>
-  </si>
-  <si>
-    <t>1.35%</t>
-  </si>
-  <si>
-    <t>1.34%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
+    <t>300450.SZ</t>
+  </si>
+  <si>
+    <t>781.12%</t>
+  </si>
+  <si>
+    <t>743.07%</t>
+  </si>
+  <si>
+    <t>489.48%</t>
+  </si>
+  <si>
+    <t>474.32%</t>
+  </si>
+  <si>
+    <t>341.08%</t>
+  </si>
+  <si>
+    <t>255.50%</t>
+  </si>
+  <si>
+    <t>212.67%</t>
+  </si>
+  <si>
+    <t>186.85%</t>
+  </si>
+  <si>
+    <t>182.00%</t>
+  </si>
+  <si>
+    <t>162.62%</t>
+  </si>
+  <si>
+    <t>158.75%</t>
+  </si>
+  <si>
+    <t>143.20%</t>
+  </si>
+  <si>
+    <t>134.42%</t>
+  </si>
+  <si>
+    <t>128.65%</t>
+  </si>
+  <si>
+    <t>127.38%</t>
+  </si>
+  <si>
+    <t>126.45%</t>
+  </si>
+  <si>
+    <t>126.43%</t>
+  </si>
+  <si>
+    <t>125.20%</t>
+  </si>
+  <si>
+    <t>123.80%</t>
+  </si>
+  <si>
+    <t>121.60%</t>
+  </si>
+  <si>
+    <t>五粮液</t>
   </si>
   <si>
     <t>贵州茅台</t>
   </si>
   <si>
-    <t>五粮液</t>
+    <t>山西汾酒</t>
   </si>
   <si>
     <t>泸州老窖</t>
   </si>
   <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
     <t>洋河股份</t>
   </si>
   <si>
@@ -377,54 +377,54 @@
     <t>航发动力</t>
   </si>
   <si>
+    <t>格力电器</t>
+  </si>
+  <si>
     <t>伊利股份</t>
   </si>
   <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
     <t>中航光电</t>
   </si>
   <si>
-    <t>酒鬼酒</t>
-  </si>
-  <si>
-    <t>中航西飞</t>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
   </si>
   <si>
     <t>中国重工</t>
   </si>
   <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
-    <t>格林美</t>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>酒类</t>
   </si>
   <si>
     <t>茅台酒</t>
   </si>
   <si>
-    <t>酒类</t>
+    <t>白酒</t>
   </si>
   <si>
     <t>中高档酒类</t>
   </si>
   <si>
-    <t>白酒</t>
-  </si>
-  <si>
     <t>暖通空调</t>
   </si>
   <si>
@@ -434,100 +434,100 @@
     <t>航空发动机制造及衍生产品</t>
   </si>
   <si>
+    <t>空调</t>
+  </si>
+  <si>
     <t>液体乳</t>
   </si>
   <si>
+    <t>酒鬼系列</t>
+  </si>
+  <si>
     <t>电连接器</t>
   </si>
   <si>
-    <t>酒鬼系列</t>
-  </si>
-  <si>
-    <t>航空产品</t>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
+  </si>
+  <si>
+    <t>三元材料</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
   </si>
   <si>
     <t>海洋运输装备</t>
   </si>
   <si>
-    <t>酱油</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>生猪</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
-  </si>
-  <si>
-    <t>空调冰箱之元器件及部件</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>68.06%</t>
-  </si>
-  <si>
-    <t>-21.93%</t>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>53.73%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
   </si>
   <si>
     <t>0.25%</t>
   </si>
   <si>
-    <t>-13.36%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>18.14%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
+    <t>28.45%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -539,40 +539,37 @@
     <t>食品饮料</t>
   </si>
   <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>家电家具</t>
-  </si>
-  <si>
     <t>锂电池</t>
   </si>
   <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
     <t>电气设备</t>
   </si>
   <si>
-    <t>63.16%</t>
-  </si>
-  <si>
-    <t>8.02%</t>
-  </si>
-  <si>
-    <t>7.26%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.37%</t>
+    <t>33.77%</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>6.05%</t>
+  </si>
+  <si>
+    <t>4.87%</t>
+  </si>
+  <si>
+    <t>2.28%</t>
+  </si>
+  <si>
+    <t>1.37%</t>
   </si>
 </sst>
 </file>
@@ -936,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,19 +996,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.067860508953817</v>
+        <v>1.02230876216968</v>
       </c>
       <c r="C3">
-        <v>1.032805271274359</v>
+        <v>1.062381554011371</v>
       </c>
       <c r="D3">
-        <v>1.02230876216968</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="E3">
-        <v>1.062350119904077</v>
+        <v>1.032806243888038</v>
       </c>
       <c r="F3">
-        <v>1.046331165575483</v>
+        <v>1.046327221552786</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1025,19 +1022,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.074458058435438</v>
+        <v>1.061140472878999</v>
       </c>
       <c r="C4">
-        <v>1.085658208327492</v>
+        <v>1.071172878500737</v>
       </c>
       <c r="D4">
-        <v>1.061140472878999</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="E4">
-        <v>1.071143085531575</v>
+        <v>1.085650497259996</v>
       </c>
       <c r="F4">
-        <v>1.073099956293376</v>
+        <v>1.073097625941845</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1051,19 +1048,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.05937794533459</v>
+        <v>1.069207232267037</v>
       </c>
       <c r="C5">
-        <v>1.088812561334642</v>
+        <v>1.087123604969467</v>
       </c>
       <c r="D5">
-        <v>1.069207232267037</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="E5">
-        <v>1.087130295763389</v>
+        <v>1.088805653449453</v>
       </c>
       <c r="F5">
-        <v>1.076132008674915</v>
+        <v>1.076120000770024</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1077,19 +1074,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.086710650329878</v>
+        <v>1.094742698191933</v>
       </c>
       <c r="C6">
-        <v>1.104584326370391</v>
+        <v>1.112707938513371</v>
       </c>
       <c r="D6">
-        <v>1.094742698191933</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="E6">
-        <v>1.112709832134293</v>
+        <v>1.104581434396738</v>
       </c>
       <c r="F6">
-        <v>1.099686876756624</v>
+        <v>1.099674581415246</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1103,19 +1100,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.077285579641847</v>
+        <v>1.068817802503477</v>
       </c>
       <c r="C7">
-        <v>1.071568764895556</v>
+        <v>1.084754685196884</v>
       </c>
       <c r="D7">
-        <v>1.068817802503477</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="E7">
-        <v>1.084732214228617</v>
+        <v>1.071572227245051</v>
       </c>
       <c r="F7">
-        <v>1.075601090317374</v>
+        <v>1.07560372834382</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1129,19 +1126,19 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.04052780395853</v>
+        <v>1.047566063977747</v>
       </c>
       <c r="C8">
-        <v>1.036800785083415</v>
+        <v>1.051168667087808</v>
       </c>
       <c r="D8">
-        <v>1.047566063977747</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="E8">
-        <v>1.051159072741807</v>
+        <v>1.036791704337879</v>
       </c>
       <c r="F8">
-        <v>1.044013431440375</v>
+        <v>1.044004004845171</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1155,19 +1152,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.063147973609802</v>
+        <v>1.076606397774687</v>
       </c>
       <c r="C9">
-        <v>1.068484508621898</v>
+        <v>1.091124447252053</v>
       </c>
       <c r="D9">
-        <v>1.076606397774687</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="E9">
-        <v>1.091127098321343</v>
+        <v>1.068490875878739</v>
       </c>
       <c r="F9">
-        <v>1.074841494581932</v>
+        <v>1.074834004745749</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1181,19 +1178,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.032045240339303</v>
+        <v>1.065257301808067</v>
       </c>
       <c r="C10">
-        <v>1.058600869199495</v>
+        <v>1.075963360707517</v>
       </c>
       <c r="D10">
-        <v>1.065257301808067</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E10">
-        <v>1.075939248601119</v>
+        <v>1.058601029577283</v>
       </c>
       <c r="F10">
-        <v>1.057960664986996</v>
+        <v>1.057960615580551</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1207,19 +1204,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.005655042412818</v>
+        <v>1.035215577190542</v>
       </c>
       <c r="C11">
-        <v>1.025445114257676</v>
+        <v>1.018372288902927</v>
       </c>
       <c r="D11">
-        <v>1.035215577190542</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="E11">
-        <v>1.018385291766587</v>
+        <v>1.025444212779305</v>
       </c>
       <c r="F11">
-        <v>1.021175256406906</v>
+        <v>1.021164337329617</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1233,19 +1230,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.02827521206409</v>
+        <v>1.019749652294854</v>
       </c>
       <c r="C12">
-        <v>0.9936912939857002</v>
+        <v>1.011212886923563</v>
       </c>
       <c r="D12">
-        <v>1.019749652294854</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="E12">
-        <v>1.01119104716227</v>
+        <v>0.9936896876210861</v>
       </c>
       <c r="F12">
-        <v>1.013226801376728</v>
+        <v>1.013225552846366</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1259,19 +1256,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.034872761545712</v>
+        <v>1.015076495132128</v>
       </c>
       <c r="C13">
-        <v>0.975396046544231</v>
+        <v>1.031164455674879</v>
       </c>
       <c r="D13">
-        <v>1.015076495132128</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="E13">
-        <v>1.031175059952038</v>
+        <v>0.9753860914810782</v>
       </c>
       <c r="F13">
-        <v>1.014130090793527</v>
+        <v>1.01412283895491</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1285,19 +1282,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.008482563619227</v>
+        <v>0.9933240611961057</v>
       </c>
       <c r="C14">
-        <v>0.9556988644329173</v>
+        <v>1.009580964413561</v>
       </c>
       <c r="D14">
-        <v>0.9933240611961057</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="E14">
-        <v>1.009592326139089</v>
+        <v>0.9556986549070982</v>
       </c>
       <c r="F14">
-        <v>0.9917744538468347</v>
+        <v>0.9917681235661696</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1311,19 +1308,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.051837888784166</v>
+        <v>1.002781641168289</v>
       </c>
       <c r="C15">
-        <v>0.9630590214496003</v>
+        <v>1.028795535902295</v>
       </c>
       <c r="D15">
-        <v>1.002781641168289</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="E15">
-        <v>1.028776978417266</v>
+        <v>0.9630606860158312</v>
       </c>
       <c r="F15">
-        <v>1.01161388245483</v>
+        <v>1.01160995102845</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1337,19 +1334,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.073515551366635</v>
+        <v>1.023031988873435</v>
       </c>
       <c r="C16">
-        <v>0.9917285854479181</v>
+        <v>1.037586860391661</v>
       </c>
       <c r="D16">
-        <v>1.023031988873435</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="E16">
-        <v>1.037569944044764</v>
+        <v>0.9917338598077385</v>
       </c>
       <c r="F16">
-        <v>1.031461517433188</v>
+        <v>1.031463030454832</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1363,19 +1360,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.100848256361923</v>
+        <v>1.026369958275382</v>
       </c>
       <c r="C17">
-        <v>0.9842983316977428</v>
+        <v>1.039955780164245</v>
       </c>
       <c r="D17">
-        <v>1.026369958275382</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="E17">
-        <v>1.039968025579536</v>
+        <v>0.9842980238758603</v>
       </c>
       <c r="F17">
-        <v>1.037871142978646</v>
+        <v>1.037861479306695</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1389,19 +1386,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.098020735155514</v>
+        <v>1.065146036161335</v>
       </c>
       <c r="C18">
-        <v>1.046824617972802</v>
+        <v>1.040798062750053</v>
       </c>
       <c r="D18">
-        <v>1.065146036161335</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="E18">
-        <v>1.040767386091127</v>
+        <v>1.046829160285625</v>
       </c>
       <c r="F18">
-        <v>1.062689693845195</v>
+        <v>1.062687967701522</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1415,19 +1412,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.067860508953817</v>
+        <v>1.044840055632823</v>
       </c>
       <c r="C19">
-        <v>1.023342212252909</v>
+        <v>0.9760475889660982</v>
       </c>
       <c r="D19">
-        <v>1.044840055632823</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="E19">
-        <v>0.9760191846522783</v>
+        <v>1.023340775319667</v>
       </c>
       <c r="F19">
-        <v>1.028015490372957</v>
+        <v>1.028010186515161</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1441,19 +1438,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>1.073515551366635</v>
+        <v>1.033713490959666</v>
       </c>
       <c r="C20">
-        <v>0.9939015841861768</v>
+        <v>0.9736260265319014</v>
       </c>
       <c r="D20">
-        <v>1.033713490959666</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="E20">
-        <v>0.9736211031175059</v>
+        <v>0.9938926508847353</v>
       </c>
       <c r="F20">
-        <v>1.018687932407496</v>
+        <v>1.018682895280699</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1467,19 +1464,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>1.033930254476909</v>
+        <v>1.013963838664812</v>
       </c>
       <c r="C21">
-        <v>0.981143978690593</v>
+        <v>0.9608338597599495</v>
       </c>
       <c r="D21">
-        <v>1.013963838664812</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="E21">
-        <v>0.9608313349320544</v>
+        <v>0.9811428676864034</v>
       </c>
       <c r="F21">
-        <v>0.9974673516910921</v>
+        <v>0.997453955275705</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1493,19 +1490,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.015080113100848</v>
+        <v>1.021808066759388</v>
       </c>
       <c r="C22">
-        <v>0.9991588391980932</v>
+        <v>0.9328806064434618</v>
       </c>
       <c r="D22">
-        <v>1.021808066759388</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="E22">
-        <v>0.932853717026379</v>
+        <v>0.9991512445338303</v>
       </c>
       <c r="F22">
-        <v>0.9922251840211771</v>
+        <v>0.9922153110778617</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1519,19 +1516,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>1.016022620169651</v>
+        <v>1.034993045897079</v>
       </c>
       <c r="C23">
-        <v>0.9969858404598345</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="D23">
-        <v>1.034993045897079</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="E23">
-        <v>0.9280575539568345</v>
+        <v>0.9969924534568335</v>
       </c>
       <c r="F23">
-        <v>0.99401476512085</v>
+        <v>0.9940083415109126</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1545,19 +1542,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.057492931196984</v>
+        <v>1.065535465924896</v>
       </c>
       <c r="C24">
-        <v>1.040515911958503</v>
+        <v>0.9424615708570225</v>
       </c>
       <c r="D24">
-        <v>1.065535465924896</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="E24">
-        <v>0.9424460431654677</v>
+        <v>1.040518847906711</v>
       </c>
       <c r="F24">
-        <v>1.026497588061463</v>
+        <v>1.026501228080113</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1571,19 +1568,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>1.054665409990575</v>
+        <v>1.074269819193324</v>
       </c>
       <c r="C25">
-        <v>1.040095331557549</v>
+        <v>0.9136660349547273</v>
       </c>
       <c r="D25">
-        <v>1.074269819193324</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="E25">
-        <v>0.9136690647482015</v>
+        <v>1.040094470173626</v>
       </c>
       <c r="F25">
-        <v>1.020674906372412</v>
+        <v>1.02066895216282</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1597,19 +1594,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.0311027332705</v>
+        <v>1.07855354659249</v>
       </c>
       <c r="C26">
-        <v>1.045843263703911</v>
+        <v>0.9025057906927774</v>
       </c>
       <c r="D26">
-        <v>1.07855354659249</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="E26">
-        <v>0.9024780175859313</v>
+        <v>1.045832795173165</v>
       </c>
       <c r="F26">
-        <v>1.014494390288208</v>
+        <v>1.014496415076653</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1623,19 +1620,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>1.002827521206409</v>
+        <v>1.090458970792768</v>
       </c>
       <c r="C27">
-        <v>1.057339127996635</v>
+        <v>0.8857127816382397</v>
       </c>
       <c r="D27">
-        <v>1.090458970792768</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="E27">
-        <v>0.8856914468425261</v>
+        <v>1.057327896378028</v>
       </c>
       <c r="F27">
-        <v>1.009079266709584</v>
+        <v>1.009070343988128</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1649,19 +1646,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.019792648444863</v>
+        <v>1.108817802503477</v>
       </c>
       <c r="C28">
-        <v>1.05747932146362</v>
+        <v>0.8880817014108234</v>
       </c>
       <c r="D28">
-        <v>1.108817802503477</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="E28">
-        <v>0.8880895283772982</v>
+        <v>1.057475506024319</v>
       </c>
       <c r="F28">
-        <v>1.018544825197314</v>
+        <v>1.018539045184166</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1675,19 +1672,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.04995287464656</v>
+        <v>1.136133518776078</v>
       </c>
       <c r="C29">
-        <v>1.082223468386373</v>
+        <v>0.9352495262160455</v>
       </c>
       <c r="D29">
-        <v>1.136133518776078</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="E29">
-        <v>0.935251798561151</v>
+        <v>1.082218572983745</v>
       </c>
       <c r="F29">
-        <v>1.05089041509254</v>
+        <v>1.050887268560234</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1701,19 +1698,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>1.062205466540999</v>
+        <v>1.181641168289291</v>
       </c>
       <c r="C30">
-        <v>1.135426889106967</v>
+        <v>0.9312486839334596</v>
       </c>
       <c r="D30">
-        <v>1.181641168289291</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="E30">
-        <v>0.9312549960031975</v>
+        <v>1.135431850471428</v>
       </c>
       <c r="F30">
-        <v>1.077632129985114</v>
+        <v>1.077627189597634</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1727,19 +1724,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.039585296889727</v>
+        <v>1.137969401947149</v>
       </c>
       <c r="C31">
-        <v>1.095752137950371</v>
+        <v>0.9256685618024847</v>
       </c>
       <c r="D31">
-        <v>1.137969401947149</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="E31">
-        <v>0.9256594724220623</v>
+        <v>1.095743306825101</v>
       </c>
       <c r="F31">
-        <v>1.049741577302327</v>
+        <v>1.049735903042707</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1753,19 +1750,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.024505183788878</v>
+        <v>1.149429763560501</v>
       </c>
       <c r="C32">
-        <v>1.089373335202579</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="D32">
-        <v>1.149429763560501</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="E32">
-        <v>0.9280575539568345</v>
+        <v>1.089377640828828</v>
       </c>
       <c r="F32">
-        <v>1.047841459127198</v>
+        <v>1.047831021206745</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1779,19 +1776,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.007540056550424</v>
+        <v>1.082169680111266</v>
       </c>
       <c r="C33">
-        <v>1.003294546474134</v>
+        <v>0.8992945883343861</v>
       </c>
       <c r="D33">
-        <v>1.082169680111266</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="E33">
-        <v>0.8992805755395684</v>
+        <v>1.003284314629961</v>
       </c>
       <c r="F33">
-        <v>0.9980712146688482</v>
+        <v>0.998057084570906</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1805,19 +1802,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>0.9896324222431668</v>
+        <v>1.076272600834492</v>
       </c>
       <c r="C34">
-        <v>1.006589092948268</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="D34">
-        <v>1.076272600834492</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="E34">
-        <v>0.9224620303756994</v>
+        <v>1.006587080465708</v>
       </c>
       <c r="F34">
-        <v>0.9987390366004067</v>
+        <v>0.9987329815188299</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1831,19 +1828,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.9547596606974551</v>
+        <v>1.044283727399165</v>
       </c>
       <c r="C35">
-        <v>0.9510023832889387</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="D35">
-        <v>1.044283727399165</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E35">
-        <v>0.9224620303756994</v>
+        <v>0.9509935974315922</v>
       </c>
       <c r="F35">
-        <v>0.9681269504403147</v>
+        <v>0.9681213140185798</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1857,19 +1854,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>0.9377945334590009</v>
+        <v>1.036717663421419</v>
       </c>
       <c r="C36">
-        <v>0.9374036169914481</v>
+        <v>0.9392503684986313</v>
       </c>
       <c r="D36">
-        <v>1.036717663421419</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="E36">
-        <v>0.9392486011191048</v>
+        <v>0.9373950587670905</v>
       </c>
       <c r="F36">
-        <v>0.962791103747743</v>
+        <v>0.9627785547080093</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1883,19 +1880,19 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>0.9180018850141376</v>
+        <v>1.009457579972183</v>
       </c>
       <c r="C37">
-        <v>0.9111874386653581</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="D37">
-        <v>1.009457579972183</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="E37">
-        <v>0.9096722621902478</v>
+        <v>0.9111943465505471</v>
       </c>
       <c r="F37">
-        <v>0.9370797914604818</v>
+        <v>0.9370717691354307</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1909,19 +1906,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>0.9538171536286523</v>
+        <v>1.027705146036161</v>
       </c>
       <c r="C38">
-        <v>0.9165147904107669</v>
+        <v>0.9248789218782901</v>
       </c>
       <c r="D38">
-        <v>1.027705146036161</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="E38">
-        <v>0.9248601119104717</v>
+        <v>0.9165082938170009</v>
       </c>
       <c r="F38">
-        <v>0.955724300496513</v>
+        <v>0.9557134687477546</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1935,19 +1932,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>0.9575871819038644</v>
+        <v>1.008344923504868</v>
       </c>
       <c r="C39">
-        <v>0.891279966353568</v>
+        <v>0.9304590440092652</v>
       </c>
       <c r="D39">
-        <v>1.008344923504868</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="E39">
-        <v>0.9304556354916067</v>
+        <v>0.8912854955071314</v>
       </c>
       <c r="F39">
-        <v>0.9469169268134767</v>
+        <v>0.9469054404910521</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1961,19 +1958,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>0.9651272384542884</v>
+        <v>1.025312934631432</v>
       </c>
       <c r="C40">
-        <v>0.9129398570026636</v>
+        <v>0.9288797641608759</v>
       </c>
       <c r="D40">
-        <v>1.025312934631432</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="E40">
-        <v>0.9288569144684253</v>
+        <v>0.9129287598944591</v>
       </c>
       <c r="F40">
-        <v>0.9580592361392024</v>
+        <v>0.9580488322491166</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1987,19 +1984,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>0.9180018850141376</v>
+        <v>0.982586926286509</v>
       </c>
       <c r="C41">
-        <v>0.8674470769662135</v>
+        <v>0.9176668772373132</v>
       </c>
       <c r="D41">
-        <v>0.982586926286509</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="E41">
-        <v>0.9176658673061551</v>
+        <v>0.8674465376312342</v>
       </c>
       <c r="F41">
-        <v>0.9214254388932538</v>
+        <v>0.9214175746254768</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2013,19 +2010,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>0.9245994344957587</v>
+        <v>0.9831988873435327</v>
       </c>
       <c r="C42">
-        <v>0.8776812000560773</v>
+        <v>0.9000842282585808</v>
       </c>
       <c r="D42">
-        <v>0.9831988873435327</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="E42">
-        <v>0.9000799360511591</v>
+        <v>0.8776869568426298</v>
       </c>
       <c r="F42">
-        <v>0.921389864486632</v>
+        <v>0.9213885896942977</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2039,19 +2036,19 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>0.8812441093308201</v>
+        <v>0.9315716272600835</v>
       </c>
       <c r="C43">
-        <v>0.8151549137810177</v>
+        <v>0.8441250789639924</v>
       </c>
       <c r="D43">
-        <v>0.9315716272600835</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="E43">
-        <v>0.8441247002398082</v>
+        <v>0.8151558204328654</v>
       </c>
       <c r="F43">
-        <v>0.8680238376529323</v>
+        <v>0.8680104673877934</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2065,19 +2062,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>0.8671065032987748</v>
+        <v>0.9113212795549372</v>
       </c>
       <c r="C44">
-        <v>0.7889387354549277</v>
+        <v>0.8025373762897452</v>
       </c>
       <c r="D44">
-        <v>0.9113212795549372</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E44">
-        <v>0.8025579536370904</v>
+        <v>0.7889366570105357</v>
       </c>
       <c r="F44">
-        <v>0.8424811179864324</v>
+        <v>0.8424726428889606</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2091,19 +2088,19 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>0.8821866163996231</v>
+        <v>0.9314603616133518</v>
       </c>
       <c r="C45">
-        <v>0.8178886863872143</v>
+        <v>0.7977468940829648</v>
       </c>
       <c r="D45">
-        <v>0.9314603616133518</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="E45">
-        <v>0.7977617905675459</v>
+        <v>0.8178865988892374</v>
       </c>
       <c r="F45">
-        <v>0.8573243637419338</v>
+        <v>0.8573180640049223</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2117,19 +2114,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>0.9066918001885014</v>
+        <v>0.9572183588317106</v>
       </c>
       <c r="C46">
-        <v>0.8495023131922051</v>
+        <v>0.8105390608549169</v>
       </c>
       <c r="D46">
-        <v>0.9572183588317106</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="E46">
-        <v>0.8105515587529977</v>
+        <v>0.8494935144011662</v>
       </c>
       <c r="F46">
-        <v>0.8809910077413536</v>
+        <v>0.8809771335961277</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2143,19 +2140,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>0.9132893496701224</v>
+        <v>0.9594993045897078</v>
       </c>
       <c r="C47">
-        <v>0.8528669563998317</v>
+        <v>0.8049589387239419</v>
       </c>
       <c r="D47">
-        <v>0.9594993045897078</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="E47">
-        <v>0.8049560351718624</v>
+        <v>0.8528700850600587</v>
       </c>
       <c r="F47">
-        <v>0.8826529114578811</v>
+        <v>0.8826500644140057</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2169,19 +2166,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>0.889726672950047</v>
+        <v>0.9258414464534074</v>
       </c>
       <c r="C48">
-        <v>0.8111593999719613</v>
+        <v>0.8001684565171615</v>
       </c>
       <c r="D48">
-        <v>0.9258414464534074</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="E48">
-        <v>0.8001598721023181</v>
+        <v>0.8111519087772386</v>
       </c>
       <c r="F48">
-        <v>0.8567218478694335</v>
+        <v>0.8567204461371745</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2195,19 +2192,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>0.8906691800188501</v>
+        <v>0.9396383866481224</v>
       </c>
       <c r="C49">
-        <v>0.8331697742885182</v>
+        <v>0.7985891766687724</v>
       </c>
       <c r="D49">
-        <v>0.9396383866481224</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="E49">
-        <v>0.7985611510791367</v>
+        <v>0.8331641972802923</v>
       </c>
       <c r="F49">
-        <v>0.8655096230086569</v>
+        <v>0.865509743944809</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2221,19 +2218,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>0.9123468426013195</v>
+        <v>0.9573852573018081</v>
       </c>
       <c r="C50">
-        <v>0.8435440908453665</v>
+        <v>0.8113813434407243</v>
       </c>
       <c r="D50">
-        <v>0.9573852573018081</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="E50">
-        <v>0.8113509192645882</v>
+        <v>0.8435337749321918</v>
       </c>
       <c r="F50">
-        <v>0.8811567775032706</v>
+        <v>0.8811612656439701</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2247,19 +2244,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>0.9132893496701224</v>
+        <v>0.9767454798331014</v>
       </c>
       <c r="C51">
-        <v>0.8684284312351044</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="D51">
-        <v>0.9767454798331014</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="E51">
-        <v>0.8201438848920863</v>
+        <v>0.868424451537908</v>
       </c>
       <c r="F51">
-        <v>0.8946517864076037</v>
+        <v>0.8946536321458537</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2273,19 +2270,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>0.8850141376060321</v>
+        <v>0.9541585535465925</v>
       </c>
       <c r="C52">
-        <v>0.8452264124491798</v>
+        <v>0.8249631501368709</v>
       </c>
       <c r="D52">
-        <v>0.9541585535465925</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="E52">
-        <v>0.8249400479616308</v>
+        <v>0.8452312858645312</v>
       </c>
       <c r="F52">
-        <v>0.8773347878908588</v>
+        <v>0.8773282795314012</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2299,19 +2296,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>0.8963242224316682</v>
+        <v>0.954269819193324</v>
       </c>
       <c r="C53">
-        <v>0.8490817327912519</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="D53">
-        <v>0.954269819193324</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="E53">
-        <v>0.8313349320543566</v>
+        <v>0.8490875878738676</v>
       </c>
       <c r="F53">
-        <v>0.8827526766176501</v>
+        <v>0.8827407012217438</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2325,19 +2322,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>0.8671065032987748</v>
+        <v>0.9462586926286509</v>
       </c>
       <c r="C54">
-        <v>0.8570727604093648</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="D54">
-        <v>0.9462586926286509</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E54">
-        <v>0.8257394084732214</v>
+        <v>0.8570769599793348</v>
       </c>
       <c r="F54">
-        <v>0.874044341202503</v>
+        <v>0.8740459253424189</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2351,19 +2348,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.8435438265786994</v>
+        <v>0.9399165507649513</v>
       </c>
       <c r="C55">
-        <v>0.8576335342773026</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="D55">
-        <v>0.9399165507649513</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="E55">
-        <v>0.812150279776179</v>
+        <v>0.8576304961529237</v>
       </c>
       <c r="F55">
-        <v>0.8633110478492831</v>
+        <v>0.8633153331254986</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2377,19 +2374,19 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.8576814326107447</v>
+        <v>0.9370236439499303</v>
       </c>
       <c r="C56">
-        <v>0.8513248282630029</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="D56">
-        <v>0.9370236439499303</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="E56">
-        <v>0.815347721822542</v>
+        <v>0.8513201837740096</v>
       </c>
       <c r="F56">
-        <v>0.865344406661555</v>
+        <v>0.8653276892996113</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2403,19 +2400,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>0.8934967012252591</v>
+        <v>0.9602781641168289</v>
       </c>
       <c r="C57">
-        <v>0.8823776812000559</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="D57">
-        <v>0.9602781641168289</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="E57">
-        <v>0.8273381294964028</v>
+        <v>0.8823735631123494</v>
       </c>
       <c r="F57">
-        <v>0.8908726690096367</v>
+        <v>0.8908686389057252</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2429,19 +2426,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>0.8821866163996231</v>
+        <v>0.9657301808066758</v>
       </c>
       <c r="C58">
-        <v>0.8982195429692976</v>
+        <v>0.8409138766056011</v>
       </c>
       <c r="D58">
-        <v>0.9657301808066758</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="E58">
-        <v>0.8409272581934453</v>
+        <v>0.8982231488827795</v>
       </c>
       <c r="F58">
-        <v>0.8967658995922605</v>
+        <v>0.8967614019322978</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2455,19 +2452,19 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>0.8925541941564561</v>
+        <v>0.9735744089012517</v>
       </c>
       <c r="C59">
-        <v>0.9017944763774008</v>
+        <v>0.857706885660139</v>
       </c>
       <c r="D59">
-        <v>0.9735744089012517</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="E59">
-        <v>0.8577138289368506</v>
+        <v>0.9017842315995351</v>
       </c>
       <c r="F59">
-        <v>0.9064092270929898</v>
+        <v>0.9063918065263228</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2481,19 +2478,19 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.8812441093308201</v>
+        <v>0.9610570236439498</v>
       </c>
       <c r="C60">
-        <v>0.8860227113416514</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="D60">
-        <v>0.9610570236439498</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="E60">
-        <v>0.8257394084732214</v>
+        <v>0.8860269018580363</v>
       </c>
       <c r="F60">
-        <v>0.8885158131974107</v>
+        <v>0.8885065146143211</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2507,19 +2504,19 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>0.8982092365692743</v>
+        <v>0.9835883171070932</v>
       </c>
       <c r="C61">
-        <v>0.9074723117902705</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="D61">
-        <v>0.9835883171070932</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="E61">
-        <v>0.8313349320543566</v>
+        <v>0.9074672029817148</v>
       </c>
       <c r="F61">
-        <v>0.9051511993802487</v>
+        <v>0.9051443047074131</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2533,19 +2530,19 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>0.9095193213949105</v>
+        <v>1.014853963838665</v>
       </c>
       <c r="C62">
-        <v>0.9508621898219544</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="D62">
-        <v>1.014853963838665</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="E62">
-        <v>0.8345323741007195</v>
+        <v>0.9508644389910882</v>
       </c>
       <c r="F62">
-        <v>0.9274419622890624</v>
+        <v>0.9274409152447805</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2559,19 +2556,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>0.9142318567389255</v>
+        <v>1.000778859527121</v>
       </c>
       <c r="C63">
-        <v>0.9374737137249403</v>
+        <v>0.8425457991156033</v>
       </c>
       <c r="D63">
-        <v>1.000778859527121</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="E63">
-        <v>0.8425259792166268</v>
+        <v>0.9374688635902356</v>
       </c>
       <c r="F63">
-        <v>0.9237526023019034</v>
+        <v>0.9237481734741082</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2585,19 +2582,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>0.9085768143261075</v>
+        <v>0.9769680111265646</v>
       </c>
       <c r="C64">
-        <v>0.8959764474975466</v>
+        <v>0.8377553169088229</v>
       </c>
       <c r="D64">
-        <v>0.9769680111265646</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="E64">
-        <v>0.8377298161470823</v>
+        <v>0.8959721017768512</v>
       </c>
       <c r="F64">
-        <v>0.9048127722743253</v>
+        <v>0.9048173327575043</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2611,19 +2608,19 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>0.9038642789820923</v>
+        <v>0.9855354659248957</v>
       </c>
       <c r="C65">
-        <v>0.9132903406701247</v>
+        <v>0.8353337544746262</v>
       </c>
       <c r="D65">
-        <v>0.9855354659248957</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E65">
-        <v>0.8353317346123101</v>
+        <v>0.9132793328043988</v>
       </c>
       <c r="F65">
-        <v>0.9095054550473558</v>
+        <v>0.9094906525496048</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2637,19 +2634,19 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>0.8906691800188501</v>
+        <v>0.9643393602225313</v>
       </c>
       <c r="C66">
-        <v>0.8874947427449881</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="D66">
-        <v>0.9643393602225313</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="E66">
-        <v>0.8401278976818545</v>
+        <v>0.887484547115154</v>
       </c>
       <c r="F66">
-        <v>0.8956577951670559</v>
+        <v>0.8956488398002851</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2663,19 +2660,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.8633364750235627</v>
+        <v>0.9530458970792768</v>
       </c>
       <c r="C67">
-        <v>0.888406000280387</v>
+        <v>0.8145399031375026</v>
       </c>
       <c r="D67">
-        <v>0.9530458970792768</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="E67">
-        <v>0.8145483613109512</v>
+        <v>0.8884071074044688</v>
       </c>
       <c r="F67">
-        <v>0.8798341834235445</v>
+        <v>0.8798293451596237</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2689,19 +2686,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.8671065032987748</v>
+        <v>0.9478164116828929</v>
       </c>
       <c r="C68">
-        <v>0.8963970278984998</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="D68">
-        <v>0.9478164116828929</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E68">
-        <v>0.812150279776179</v>
+        <v>0.8963964795099361</v>
       </c>
       <c r="F68">
-        <v>0.8808675556640866</v>
+        <v>0.8808697833145931</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2715,19 +2712,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>0.9038642789820923</v>
+        <v>0.9601668984700973</v>
       </c>
       <c r="C69">
-        <v>0.9077526987242394</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="D69">
-        <v>0.9601668984700973</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E69">
-        <v>0.8233413269384493</v>
+        <v>0.9077439710685093</v>
       </c>
       <c r="F69">
-        <v>0.8987813007787195</v>
+        <v>0.8987640385399934</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2741,19 +2738,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>0.9038642789820923</v>
+        <v>0.9505424200278163</v>
       </c>
       <c r="C70">
-        <v>0.9008832188420017</v>
+        <v>0.8217519477784797</v>
       </c>
       <c r="D70">
-        <v>0.9505424200278163</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E70">
-        <v>0.8217426059152678</v>
+        <v>0.9008801225160065</v>
       </c>
       <c r="F70">
-        <v>0.8942581309417945</v>
+        <v>0.8942471368292002</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2767,19 +2764,19 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>0.9029217719132893</v>
+        <v>0.9559944367176634</v>
       </c>
       <c r="C71">
-        <v>0.9230337866255431</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="D71">
-        <v>0.9559944367176634</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="E71">
-        <v>0.8225419664268584</v>
+        <v>0.9230400206653505</v>
       </c>
       <c r="F71">
-        <v>0.9011229904208385</v>
+        <v>0.9011157149247571</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2793,19 +2790,19 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>0.9557021677662583</v>
+        <v>0.9735744089012517</v>
       </c>
       <c r="C72">
-        <v>0.9344595541847749</v>
+        <v>0.8337544746262372</v>
       </c>
       <c r="D72">
-        <v>0.9735744089012517</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="E72">
-        <v>0.8337330135891287</v>
+        <v>0.934461317047069</v>
       </c>
       <c r="F72">
-        <v>0.9243672861103533</v>
+        <v>0.9243670036887962</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2819,19 +2816,19 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>0.9509896324222431</v>
+        <v>0.9765229485396384</v>
       </c>
       <c r="C73">
-        <v>0.9451142576755923</v>
+        <v>0.8297536323436513</v>
       </c>
       <c r="D73">
-        <v>0.9765229485396384</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="E73">
-        <v>0.8297362110311751</v>
+        <v>0.9451076627857632</v>
       </c>
       <c r="F73">
-        <v>0.9255907624171622</v>
+        <v>0.9255910074462859</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2845,19 +2842,19 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>0.9509896324222431</v>
+        <v>0.9793045897079277</v>
       </c>
       <c r="C74">
-        <v>0.9683162764615167</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="D74">
-        <v>0.9793045897079277</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="E74">
-        <v>0.8225419664268584</v>
+        <v>0.9683192796649261</v>
       </c>
       <c r="F74">
-        <v>0.9302881162546365</v>
+        <v>0.9302863107979047</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2871,19 +2868,19 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>0.9528746465598491</v>
+        <v>0.9760222531293462</v>
       </c>
       <c r="C75">
-        <v>0.9681059862610401</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="D75">
-        <v>0.9760222531293462</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="E75">
-        <v>0.8225419664268584</v>
+        <v>0.9680978651954907</v>
       </c>
       <c r="F75">
-        <v>0.9298862130942734</v>
+        <v>0.9298739942264798</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2897,19 +2894,19 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>0.9641847313854853</v>
+        <v>0.9953268428372739</v>
       </c>
       <c r="C76">
-        <v>0.9790410766858265</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="D76">
-        <v>0.9953268428372739</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="E76">
-        <v>0.8201438848920863</v>
+        <v>0.9790394302267653</v>
       </c>
       <c r="F76">
-        <v>0.939674133950168</v>
+        <v>0.9396713922306676</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2923,19 +2920,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>0.9547596606974551</v>
+        <v>0.9764116828929068</v>
       </c>
       <c r="C77">
-        <v>0.9650217299873826</v>
+        <v>0.819330385344283</v>
       </c>
       <c r="D77">
-        <v>0.9764116828929068</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E77">
-        <v>0.8193445243804955</v>
+        <v>0.9650165138291789</v>
       </c>
       <c r="F77">
-        <v>0.92888439948956</v>
+        <v>0.9288772884664593</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2949,19 +2946,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>0.945334590009425</v>
+        <v>0.9858136300417246</v>
       </c>
       <c r="C78">
-        <v>0.9783401093509041</v>
+        <v>0.8089597810065277</v>
       </c>
       <c r="D78">
-        <v>0.9858136300417246</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="E78">
-        <v>0.8089528377298162</v>
+        <v>0.978338284406886</v>
       </c>
       <c r="F78">
-        <v>0.9296102917829675</v>
+        <v>0.9296010987416976</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2975,19 +2972,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>0.9679547596606973</v>
+        <v>0.9914325452016689</v>
       </c>
       <c r="C79">
-        <v>1.002944062806673</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="D79">
-        <v>0.9914325452016689</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="E79">
-        <v>0.815347721822542</v>
+        <v>1.002933741720021</v>
       </c>
       <c r="F79">
-        <v>0.9444197723728953</v>
+        <v>0.9444033108988265</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3001,19 +2998,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>0.9651272384542884</v>
+        <v>1.005118219749652</v>
       </c>
       <c r="C80">
-        <v>1.001752418337305</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="D80">
-        <v>1.005118219749652</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="E80">
-        <v>0.815347721822542</v>
+        <v>1.001752864549698</v>
       </c>
       <c r="F80">
-        <v>0.946836399590947</v>
+        <v>0.9468186244176866</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3027,19 +3024,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>0.9839773798303488</v>
+        <v>0.9932127955493741</v>
       </c>
       <c r="C81">
-        <v>0.990116360577597</v>
+        <v>0.7889555695935986</v>
       </c>
       <c r="D81">
-        <v>0.9932127955493741</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="E81">
-        <v>0.7889688249400479</v>
+        <v>0.9901101536985443</v>
       </c>
       <c r="F81">
-        <v>0.939068840224342</v>
+        <v>0.939051579392026</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3053,19 +3050,19 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>0.9764373232799246</v>
+        <v>0.9645062586926286</v>
       </c>
       <c r="C82">
-        <v>0.9599046684424504</v>
+        <v>0.7993788165929669</v>
       </c>
       <c r="D82">
-        <v>0.9645062586926286</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="E82">
-        <v>0.7993605115907274</v>
+        <v>0.9599055298263742</v>
       </c>
       <c r="F82">
-        <v>0.9250521905014327</v>
+        <v>0.9250442081179504</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3079,19 +3076,19 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>0.9500471253534402</v>
+        <v>0.9460361613351876</v>
       </c>
       <c r="C83">
-        <v>0.9438525164727324</v>
+        <v>0.7881659296694041</v>
       </c>
       <c r="D83">
-        <v>0.9460361613351876</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="E83">
-        <v>0.7881694644284573</v>
+        <v>0.9438529807922948</v>
       </c>
       <c r="F83">
-        <v>0.9070263168974544</v>
+        <v>0.9070114498432688</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3105,19 +3102,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>0.9547596606974551</v>
+        <v>0.9370236439499303</v>
       </c>
       <c r="C84">
-        <v>0.9278003645030142</v>
+        <v>0.7777953253316489</v>
       </c>
       <c r="D84">
-        <v>0.9370236439499303</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E84">
-        <v>0.7777777777777777</v>
+        <v>0.9278004317582155</v>
       </c>
       <c r="F84">
-        <v>0.8993403617320443</v>
+        <v>0.8993424932098157</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3131,19 +3128,19 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>0.9387370405278039</v>
+        <v>0.958442280945758</v>
       </c>
       <c r="C85">
-        <v>0.9603953455768961</v>
+        <v>0.7961676142345757</v>
       </c>
       <c r="D85">
-        <v>0.958442280945758</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="E85">
-        <v>0.7961630695443646</v>
+        <v>0.960385261176818</v>
       </c>
       <c r="F85">
-        <v>0.9134344341487056</v>
+        <v>0.9134338357604878</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3157,19 +3154,19 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>0.942507068803016</v>
+        <v>0.9646731571627259</v>
       </c>
       <c r="C86">
-        <v>0.9758867236786766</v>
+        <v>0.7929564118761845</v>
       </c>
       <c r="D86">
-        <v>0.9646731571627259</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="E86">
-        <v>0.7929656274980016</v>
+        <v>0.9758842740373084</v>
       </c>
       <c r="F86">
-        <v>0.9190081442856051</v>
+        <v>0.9189907498214129</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3183,19 +3180,19 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>0.9236569274269556</v>
+        <v>0.9560500695410291</v>
       </c>
       <c r="C87">
-        <v>0.9777092387494742</v>
+        <v>0.7905874921036008</v>
       </c>
       <c r="D87">
-        <v>0.9560500695410291</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="E87">
-        <v>0.7905675459632294</v>
+        <v>0.9777109434101519</v>
       </c>
       <c r="F87">
-        <v>0.911995945420172</v>
+        <v>0.9120013872515177</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3209,19 +3206,19 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>0.9519321394910462</v>
+        <v>0.9764673157162727</v>
       </c>
       <c r="C88">
-        <v>0.9918687789149024</v>
+        <v>0.8185407454200885</v>
       </c>
       <c r="D88">
-        <v>0.9764673157162727</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="E88">
-        <v>0.818545163868905</v>
+        <v>0.9918630182482426</v>
       </c>
       <c r="F88">
-        <v>0.9347033494977816</v>
+        <v>0.9346945269704633</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3235,19 +3232,19 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>0.9924599434495758</v>
+        <v>1.000166898470097</v>
       </c>
       <c r="C89">
-        <v>1.011215477358755</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="D89">
-        <v>1.000166898470097</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="E89">
-        <v>0.8233413269384493</v>
+        <v>1.011218333118069</v>
       </c>
       <c r="F89">
-        <v>0.9567959115542194</v>
+        <v>0.95679372196207</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3261,19 +3258,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>0.9934024505183789</v>
+        <v>0.9973852573018079</v>
       </c>
       <c r="C90">
-        <v>1.013108089163045</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="D90">
-        <v>0.9973852573018079</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="E90">
-        <v>0.8401278976818545</v>
+        <v>1.013100356108272</v>
       </c>
       <c r="F90">
-        <v>0.9610059236662716</v>
+        <v>0.9609988802764724</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3287,19 +3284,19 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>1.026390197926484</v>
+        <v>0.9964394993045896</v>
       </c>
       <c r="C91">
-        <v>1.004556287676994</v>
+        <v>0.8417561591914087</v>
       </c>
       <c r="D91">
-        <v>0.9964394993045896</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="E91">
-        <v>0.841726618705036</v>
+        <v>1.004557447829216</v>
       </c>
       <c r="F91">
-        <v>0.9672781509032761</v>
+        <v>0.9672716974875284</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3313,19 +3310,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.032045240339303</v>
+        <v>1.007621696801112</v>
       </c>
       <c r="C92">
-        <v>1.029230337866255</v>
+        <v>0.8433354390397979</v>
       </c>
       <c r="D92">
-        <v>1.007621696801112</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E92">
-        <v>0.8433253397282174</v>
+        <v>1.029226709965496</v>
       </c>
       <c r="F92">
-        <v>0.9780556536837219</v>
+        <v>0.9780511540089362</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3339,19 +3336,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.027332704995288</v>
+        <v>0.9963838664812238</v>
       </c>
       <c r="C93">
-        <v>1.032244497406421</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="D93">
-        <v>0.9963838664812238</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="E93">
-        <v>0.8273381294964028</v>
+        <v>1.032234256508663</v>
       </c>
       <c r="F93">
-        <v>0.9708247995948337</v>
+        <v>0.9708182337660358</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3365,19 +3362,19 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.02827521206409</v>
+        <v>1.003115438108484</v>
       </c>
       <c r="C94">
-        <v>1.059442030001402</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="D94">
-        <v>1.003115438108484</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="E94">
-        <v>0.8345323741007195</v>
+        <v>1.059431333837666</v>
       </c>
       <c r="F94">
-        <v>0.9813412635686739</v>
+        <v>0.9813352177606355</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3391,19 +3388,19 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.037700282752121</v>
+        <v>1.042726008344923</v>
       </c>
       <c r="C95">
-        <v>1.096453105285294</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="D95">
-        <v>1.042726008344923</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="E95">
-        <v>0.8617106314948043</v>
+        <v>1.09644445264498</v>
       </c>
       <c r="F95">
-        <v>1.009647506969286</v>
+        <v>1.009631057401915</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3417,19 +3414,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.032045240339303</v>
+        <v>1.041223922114047</v>
       </c>
       <c r="C96">
-        <v>1.086990046263844</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="D96">
-        <v>1.041223922114047</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E96">
-        <v>0.8617106314948043</v>
+        <v>1.086978984076609</v>
       </c>
       <c r="F96">
-        <v>1.005492460053</v>
+        <v>1.00548285109068</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3443,19 +3440,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.036757775683318</v>
+        <v>1.043671766342142</v>
       </c>
       <c r="C97">
-        <v>1.093018365344175</v>
+        <v>0.8689197725837019</v>
       </c>
       <c r="D97">
-        <v>1.043671766342142</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="E97">
-        <v>0.8689048760991207</v>
+        <v>1.093012528368729</v>
       </c>
       <c r="F97">
-        <v>1.010588195867189</v>
+        <v>1.010580716397112</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3469,19 +3466,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.079170593779453</v>
+        <v>1.036606397774687</v>
       </c>
       <c r="C98">
-        <v>1.094420300014019</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="D98">
-        <v>1.036606397774687</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="E98">
-        <v>0.8729016786570745</v>
+        <v>1.094414820008488</v>
       </c>
       <c r="F98">
-        <v>1.020774742556309</v>
+        <v>1.020766628960412</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3495,19 +3492,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.130065975494816</v>
+        <v>1.029318497913769</v>
       </c>
       <c r="C99">
-        <v>1.100799102761811</v>
+        <v>0.8976626658243841</v>
       </c>
       <c r="D99">
-        <v>1.029318497913769</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="E99">
-        <v>0.8976818545163868</v>
+        <v>1.100798937210547</v>
       </c>
       <c r="F99">
-        <v>1.039466357671696</v>
+        <v>1.039460324736464</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3521,19 +3518,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.116870876531574</v>
+        <v>1.032267037552156</v>
       </c>
       <c r="C100">
-        <v>1.11404738539184</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="D100">
-        <v>1.032267037552156</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="E100">
-        <v>0.8928856914468426</v>
+        <v>1.114046902965109</v>
       </c>
       <c r="F100">
-        <v>1.039017747730603</v>
+        <v>1.039004666040208</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3547,19 +3544,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.111215834118756</v>
+        <v>1.025646731571627</v>
       </c>
       <c r="C101">
-        <v>1.097855039955138</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="D101">
-        <v>1.025646731571627</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="E101">
-        <v>0.8729016786570745</v>
+        <v>1.097846744284739</v>
       </c>
       <c r="F101">
-        <v>1.026904821075649</v>
+        <v>1.02690534007573</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3573,19 +3570,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.106503298774741</v>
+        <v>1.02759388038943</v>
       </c>
       <c r="C102">
-        <v>1.114538062526286</v>
+        <v>0.8609180880185302</v>
       </c>
       <c r="D102">
-        <v>1.02759388038943</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="E102">
-        <v>0.8609112709832135</v>
+        <v>1.114526634315553</v>
       </c>
       <c r="F102">
-        <v>1.027386628168418</v>
+        <v>1.027371507020125</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3599,19 +3596,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.133836003770028</v>
+        <v>1.031710709318498</v>
       </c>
       <c r="C103">
-        <v>1.135917566241413</v>
+        <v>0.8704990524320909</v>
       </c>
       <c r="D103">
-        <v>1.031710709318498</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="E103">
-        <v>0.8705035971223022</v>
+        <v>1.135911581821872</v>
       </c>
       <c r="F103">
-        <v>1.04299196911306</v>
+        <v>1.042988331813249</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3625,19 +3622,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.113100848256362</v>
+        <v>1.025424200278164</v>
       </c>
       <c r="C104">
-        <v>1.154212813682882</v>
+        <v>0.8849231417140451</v>
       </c>
       <c r="D104">
-        <v>1.025424200278164</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="E104">
-        <v>0.8848920863309353</v>
+        <v>1.15421517796188</v>
       </c>
       <c r="F104">
-        <v>1.044407487137086</v>
+        <v>1.044406068574169</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3651,19 +3648,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.105560791705938</v>
+        <v>1.003504867872044</v>
       </c>
       <c r="C105">
-        <v>1.079139212112716</v>
+        <v>0.8952937460518005</v>
       </c>
       <c r="D105">
-        <v>1.003504867872044</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="E105">
-        <v>0.8952837729816148</v>
+        <v>1.079137221617433</v>
       </c>
       <c r="F105">
-        <v>1.020872161168078</v>
+        <v>1.020864004629277</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3677,19 +3674,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.103675777568332</v>
+        <v>1.004450625869263</v>
       </c>
       <c r="C106">
-        <v>1.080330856582083</v>
+        <v>0.9008738681827754</v>
       </c>
       <c r="D106">
-        <v>1.004450625869263</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="E106">
-        <v>0.9008792965627499</v>
+        <v>1.080336549993542</v>
       </c>
       <c r="F106">
-        <v>1.022334139145607</v>
+        <v>1.022331685564773</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3703,19 +3700,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.141376060320452</v>
+        <v>1.009958275382476</v>
       </c>
       <c r="C107">
-        <v>1.098626104023552</v>
+        <v>0.903295430616972</v>
       </c>
       <c r="D107">
-        <v>1.009958275382476</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="E107">
-        <v>0.903277378097522</v>
+        <v>1.098621694927764</v>
       </c>
       <c r="F107">
-        <v>1.038309454456001</v>
+        <v>1.038296784953939</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3729,19 +3726,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.152686145146089</v>
+        <v>0.9949930458970793</v>
       </c>
       <c r="C108">
-        <v>1.064629188279826</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="D108">
-        <v>0.9949930458970793</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="E108">
-        <v>0.8745003996802558</v>
+        <v>1.064634573869402</v>
       </c>
       <c r="F108">
-        <v>1.021702194750812</v>
+        <v>1.021687902604959</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3755,19 +3752,19 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.144203581526861</v>
+        <v>0.9855354659248957</v>
       </c>
       <c r="C109">
-        <v>1.064208607878873</v>
+        <v>0.8760791745630658</v>
       </c>
       <c r="D109">
-        <v>0.9855354659248957</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="E109">
-        <v>0.8760991207034374</v>
+        <v>1.064210196136318</v>
       </c>
       <c r="F109">
-        <v>1.017511694008517</v>
+        <v>1.017495029703761</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3781,19 +3778,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>1.076343072573044</v>
+        <v>0.9780250347705145</v>
       </c>
       <c r="C110">
-        <v>1.04990887424646</v>
+        <v>0.8664982101495051</v>
       </c>
       <c r="D110">
-        <v>0.9780250347705145</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="E110">
-        <v>0.8665067945643485</v>
+        <v>1.049910511651936</v>
       </c>
       <c r="F110">
-        <v>0.9926959440385918</v>
+        <v>0.9926787241154809</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3807,19 +3804,19 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.105560791705938</v>
+        <v>0.9735744089012517</v>
       </c>
       <c r="C111">
-        <v>1.070867797560634</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="D111">
-        <v>0.9735744089012517</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="E111">
-        <v>0.8745003996802558</v>
+        <v>1.070871081425171</v>
       </c>
       <c r="F111">
-        <v>1.00612584946202</v>
+        <v>1.006116392004232</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3833,19 +3830,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.152686145146089</v>
+        <v>0.9613351877607788</v>
       </c>
       <c r="C112">
-        <v>1.053624001121548</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="D112">
-        <v>0.9613351877607788</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="E112">
-        <v>0.8928856914468426</v>
+        <v>1.053619204014983</v>
       </c>
       <c r="F112">
-        <v>1.015132756368815</v>
+        <v>1.015112667833011</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3859,19 +3856,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.157398680490104</v>
+        <v>0.9518776077885953</v>
       </c>
       <c r="C113">
-        <v>1.044932006168512</v>
+        <v>0.9264582017266794</v>
       </c>
       <c r="D113">
-        <v>0.9518776077885953</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="E113">
-        <v>0.9264588329336531</v>
+        <v>1.044928686089636</v>
       </c>
       <c r="F113">
-        <v>1.020166781845216</v>
+        <v>1.020162108941717</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3885,19 +3882,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.161168708765316</v>
+        <v>0.9532127955493741</v>
       </c>
       <c r="C114">
-        <v>1.050960325248844</v>
+        <v>0.9208780795957044</v>
       </c>
       <c r="D114">
-        <v>0.9532127955493741</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="E114">
-        <v>0.9208633093525179</v>
+        <v>1.050962230381755</v>
       </c>
       <c r="F114">
-        <v>1.021551284729013</v>
+        <v>1.021551957843043</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3911,19 +3908,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.190386427898209</v>
+        <v>0.9508762169680111</v>
       </c>
       <c r="C115">
-        <v>1.014930604233843</v>
+        <v>0.9200884396715098</v>
       </c>
       <c r="D115">
-        <v>0.9508762169680111</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="E115">
-        <v>0.9200639488409272</v>
+        <v>1.014927025481115</v>
       </c>
       <c r="F115">
-        <v>1.019064299485247</v>
+        <v>1.019055908723273</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3937,19 +3934,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.175306314797361</v>
+        <v>0.952433936022253</v>
       </c>
       <c r="C116">
-        <v>1.023762792653862</v>
+        <v>0.9072962728995578</v>
       </c>
       <c r="D116">
-        <v>0.952433936022253</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="E116">
-        <v>0.9072741806554757</v>
+        <v>1.023765153052752</v>
       </c>
       <c r="F116">
-        <v>1.014694306032238</v>
+        <v>1.014686043003377</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3963,19 +3960,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.193213949104618</v>
+        <v>0.9661752433936022</v>
       </c>
       <c r="C117">
-        <v>1.044791812701528</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="D117">
-        <v>0.9661752433936022</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="E117">
-        <v>0.9096722621902478</v>
+        <v>1.044781076443346</v>
       </c>
       <c r="F117">
-        <v>1.028463316847499</v>
+        <v>1.028449252145941</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3989,25 +3986,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.193213949104618</v>
+        <v>0.9769680111265646</v>
       </c>
       <c r="C118">
-        <v>1.044791812701528</v>
+        <v>0.914455674878922</v>
       </c>
       <c r="D118">
-        <v>0.9661752433936022</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="E118">
-        <v>0.9096722621902478</v>
+        <v>1.053194826281898</v>
       </c>
       <c r="F118">
-        <v>1.028463316847499</v>
+        <v>1.04175826286198</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9613908205841446</v>
+      </c>
+      <c r="C119">
+        <v>0.8952937460518005</v>
+      </c>
+      <c r="D119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="E119">
+        <v>1.031828329981364</v>
+      </c>
+      <c r="F119">
+        <v>1.028674555365306</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9610570236439498</v>
+      </c>
+      <c r="C120">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="D120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="E120">
+        <v>1.040648006347215</v>
+      </c>
+      <c r="F120">
+        <v>1.041056563051198</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.970125173852573</v>
+      </c>
+      <c r="C121">
+        <v>0.8721309749420931</v>
+      </c>
+      <c r="D121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="E121">
+        <v>1.053766813661273</v>
+      </c>
+      <c r="F121">
+        <v>1.034322857508341</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9382475660639777</v>
+      </c>
+      <c r="C122">
+        <v>0.8441250789639924</v>
+      </c>
+      <c r="D122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="E122">
+        <v>1.011919478937949</v>
+      </c>
+      <c r="F122">
+        <v>1.007468376234726</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9257858136300416</v>
+      </c>
+      <c r="C123">
+        <v>0.8481259212465783</v>
+      </c>
+      <c r="D123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="E123">
+        <v>1.02053619204015</v>
+      </c>
+      <c r="F123">
+        <v>1.014585277148615</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9230041724617524</v>
+      </c>
+      <c r="C124">
+        <v>0.8521267635291641</v>
+      </c>
+      <c r="D124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="E124">
+        <v>1.019410668487186</v>
+      </c>
+      <c r="F124">
+        <v>1.014608696538948</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9281780250347705</v>
+      </c>
+      <c r="C125">
+        <v>0.8752895346388714</v>
+      </c>
+      <c r="D125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="E125">
+        <v>1.032732439064893</v>
+      </c>
+      <c r="F125">
+        <v>1.042223641274545</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9122670375521557</v>
+      </c>
+      <c r="C126">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="D126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="E126">
+        <v>1.016956658117608</v>
+      </c>
+      <c r="F126">
+        <v>1.047446336412802</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9035326842837273</v>
+      </c>
+      <c r="C127">
+        <v>0.9008738681827754</v>
+      </c>
+      <c r="D127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="E127">
+        <v>0.9822683912393675</v>
+      </c>
+      <c r="F127">
+        <v>1.039732962915402</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4119,18 +4350,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4162,172 +4393,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>141.9</v>
+        <v>8.14210033416748</v>
       </c>
       <c r="K2">
-        <v>9.640000000000001</v>
+        <v>30.83489990234375</v>
       </c>
       <c r="L2">
-        <v>12.41</v>
-      </c>
-      <c r="M2">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>8.5604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>0.25</v>
       </c>
       <c r="J3">
-        <v>55.84</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K3">
-        <v>14.11</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L3">
-        <v>6.87</v>
-      </c>
-      <c r="M3">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>0.25</v>
       </c>
       <c r="J4">
-        <v>33.32</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K4">
-        <v>8.68</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L4">
-        <v>2.34</v>
-      </c>
-      <c r="M4">
-        <v>8.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>31.9832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0.25</v>
       </c>
       <c r="J5">
-        <v>67.98</v>
+        <v>13.56060028076172</v>
       </c>
       <c r="K5">
-        <v>3.81</v>
+        <v>51.59040069580078</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
-      </c>
-      <c r="M5">
-        <v>27.09</v>
+        <v>12.1321</v>
       </c>
     </row>
   </sheetData>
@@ -4345,19 +4561,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4365,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
@@ -4385,10 +4601,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -4405,10 +4621,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>113</v>
@@ -4425,10 +4641,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -4445,16 +4661,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
         <v>154</v>
@@ -4465,10 +4681,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>116</v>
@@ -4485,10 +4701,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
@@ -4505,10 +4721,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>118</v>
@@ -4525,10 +4741,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
@@ -4545,10 +4761,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>120</v>
@@ -4565,10 +4781,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>121</v>
@@ -4585,10 +4801,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
@@ -4605,10 +4821,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>123</v>
@@ -4625,10 +4841,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>124</v>
@@ -4645,10 +4861,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>125</v>
@@ -4665,10 +4881,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>126</v>
@@ -4685,10 +4901,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
         <v>127</v>
@@ -4705,10 +4921,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
         <v>128</v>
@@ -4725,10 +4941,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>129</v>
@@ -4745,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>110</v>
@@ -4767,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4789,18 +5005,18 @@
         <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4816,7 +5032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>175</v>
@@ -4827,7 +5043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>176</v>
@@ -4838,24 +5054,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>177</v>
       </c>
       <c r="C7" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
